--- a/data/trans_orig/IP07C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E8AD007-B941-43CC-B743-AA1D9DA6AB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F79833DE-8186-449C-BE55-40210BA64E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{23D4AC88-ABDF-4034-8013-DE043AE3CFA8}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1C57FDE8-837D-4E35-88B1-7D2D254CEB8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,33 +71,171 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
     <t>6,26%</t>
   </si>
   <si>
@@ -173,150 +311,45 @@
     <t>56,69%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
     <t>5,07%</t>
   </si>
   <si>
@@ -389,42 +422,153 @@
     <t>56,29%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
     <t>4,85%</t>
   </si>
   <si>
@@ -506,148 +650,37 @@
     <t>44,22%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>4,51%</t>
@@ -728,42 +761,114 @@
     <t>44,23%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
     <t>4,66%</t>
   </si>
   <si>
@@ -842,109 +947,37 @@
     <t>56,87%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>3,63%</t>
@@ -1019,42 +1052,135 @@
     <t>57,2%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
     <t>5,72%</t>
   </si>
   <si>
@@ -1133,130 +1259,40 @@
     <t>60,19%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>5,33%</t>
@@ -1335,42 +1371,6 @@
   </si>
   <si>
     <t>59,5%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6982B65-46E9-4976-ACFD-81880FFF43AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E4DAB-F4AD-483B-93CD-92A08F8B7D50}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2152,10 +2152,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>9802</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2167,34 +2167,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="7">
-        <v>12710</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>33</v>
-      </c>
-      <c r="N10" s="7">
-        <v>22512</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,49 +2203,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>105015</v>
+        <v>700</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>527</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1227</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>146</v>
-      </c>
-      <c r="I11" s="7">
-        <v>98537</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>302</v>
-      </c>
-      <c r="N11" s="7">
-        <v>203552</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,49 +2254,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>132556</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>128790</v>
+        <v>1865</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>261347</v>
+        <v>1865</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,49 +2305,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>26020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>20557</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>46577</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,49 +2356,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>3288</v>
+        <v>32348</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="7">
+        <v>38</v>
+      </c>
+      <c r="I14" s="7">
+        <v>25933</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="7">
+        <v>88</v>
+      </c>
+      <c r="N14" s="7">
+        <v>58281</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1726</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5014</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,54 +2407,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>250661</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>735</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>492425</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2466,43 +2466,43 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1865</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1865</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,49 +2511,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>26020</v>
+        <v>3288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H17" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>20557</v>
+        <v>1726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>46577</v>
+        <v>5014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,49 +2562,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>32348</v>
+        <v>9802</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H18" s="7">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I18" s="7">
-        <v>25933</v>
+        <v>12710</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>58281</v>
+        <v>22512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,49 +2613,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>105015</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>98537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>203552</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,46 +2664,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D20" s="7">
-        <v>700</v>
+        <v>132556</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="7">
+        <v>192</v>
+      </c>
+      <c r="I20" s="7">
+        <v>128790</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>527</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>392</v>
+      </c>
+      <c r="N20" s="7">
+        <v>261347</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1227</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>89</v>
@@ -2715,49 +2715,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>250661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>735</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>492425</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,49 +2768,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>9802</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H22" s="7">
-        <v>21</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14575</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="7">
-        <v>36</v>
-      </c>
-      <c r="N22" s="7">
-        <v>24377</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,49 +2819,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>131035</v>
+        <v>3988</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2253</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="7">
+        <v>10</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6241</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H23" s="7">
-        <v>177</v>
-      </c>
-      <c r="I23" s="7">
-        <v>119094</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="7">
-        <v>372</v>
-      </c>
-      <c r="N23" s="7">
-        <v>250129</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,49 +2870,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>164905</v>
+        <v>9802</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="7">
+        <v>21</v>
+      </c>
+      <c r="I24" s="7">
+        <v>14575</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="7">
+        <v>36</v>
+      </c>
+      <c r="N24" s="7">
+        <v>24377</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="7">
-        <v>230</v>
-      </c>
-      <c r="I24" s="7">
-        <v>154723</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M24" s="7">
-        <v>480</v>
-      </c>
-      <c r="N24" s="7">
-        <v>319628</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,46 +2921,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>131035</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>177</v>
+      </c>
+      <c r="I25" s="7">
+        <v>119094</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="7">
+        <v>372</v>
+      </c>
+      <c r="N25" s="7">
+        <v>250129</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>118</v>
@@ -2972,10 +2972,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="D26" s="7">
-        <v>3988</v>
+        <v>164905</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>119</v>
@@ -2987,10 +2987,10 @@
         <v>121</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="I26" s="7">
-        <v>2253</v>
+        <v>154723</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>122</v>
@@ -2999,16 +2999,16 @@
         <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="N26" s="7">
-        <v>6241</v>
+        <v>319628</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>125</v>
@@ -3029,13 +3029,13 @@
         <v>309730</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>432</v>
@@ -3044,13 +3044,13 @@
         <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>898</v>
@@ -3059,13 +3059,13 @@
         <v>600376</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3084,7 +3084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC9CAE3-3E4B-4118-ADB3-8FB45F43507D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63551FEB-80FD-4B3A-81C2-21DDCF7CAA77}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3474,49 +3474,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
-        <v>12642</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="H10" s="7">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15645</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="7">
-        <v>39</v>
-      </c>
-      <c r="N10" s="7">
-        <v>28287</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,49 +3525,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>122289</v>
+        <v>826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>136426</v>
+        <v>747</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
-        <v>375</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>258714</v>
+        <v>1573</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,49 +3576,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>118148</v>
+        <v>2085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>84686</v>
+        <v>2224</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>202834</v>
+        <v>4309</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,49 +3627,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>1294</v>
+        <v>35300</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>678</v>
+        <v>37109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="N13" s="7">
-        <v>1973</v>
+        <v>72409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,49 +3678,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>6219</v>
+        <v>27964</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>4670</v>
+        <v>28613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="N14" s="7">
-        <v>10889</v>
+        <v>56576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,102 +3729,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>383</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>260592</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>345</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7">
-        <v>242105</v>
+        <v>68693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>728</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7">
-        <v>502696</v>
+        <v>134867</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1294</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>678</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
-        <v>2085</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2224</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
       <c r="N16" s="7">
-        <v>4309</v>
+        <v>1973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,49 +3833,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>35300</v>
+        <v>6219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>37109</v>
+        <v>4670</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>72409</v>
+        <v>10889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,49 +3884,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12642</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="7">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7">
+        <v>15645</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="7">
         <v>39</v>
       </c>
-      <c r="D18" s="7">
-        <v>27964</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" s="7">
-        <v>41</v>
-      </c>
-      <c r="I18" s="7">
-        <v>28613</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M18" s="7">
-        <v>80</v>
-      </c>
       <c r="N18" s="7">
-        <v>56576</v>
+        <v>28287</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,49 +3935,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>122289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>136426</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>258714</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,46 +3986,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D20" s="7">
-        <v>826</v>
+        <v>118148</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="7">
+        <v>121</v>
+      </c>
+      <c r="I20" s="7">
+        <v>84686</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>295</v>
+      </c>
+      <c r="N20" s="7">
+        <v>202834</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>747</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1573</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>202</v>
@@ -4037,49 +4037,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>383</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>260592</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>68693</v>
+        <v>242105</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>189</v>
+        <v>728</v>
       </c>
       <c r="N21" s="7">
-        <v>134867</v>
+        <v>502696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,49 +4090,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>14726</v>
+        <v>1294</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>204</v>
       </c>
       <c r="H22" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>17869</v>
+        <v>678</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1973</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="M22" s="7">
-        <v>45</v>
-      </c>
-      <c r="N22" s="7">
-        <v>32596</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,49 +4141,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>157589</v>
+        <v>7044</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" s="7">
+        <v>8</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5417</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>18</v>
+      </c>
+      <c r="N23" s="7">
+        <v>12461</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="H23" s="7">
-        <v>247</v>
-      </c>
-      <c r="I23" s="7">
-        <v>173535</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M23" s="7">
-        <v>476</v>
-      </c>
-      <c r="N23" s="7">
-        <v>331123</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,49 +4192,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7">
-        <v>146112</v>
+        <v>14726</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="7">
+        <v>24</v>
+      </c>
+      <c r="I24" s="7">
+        <v>17869</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" s="7">
+        <v>45</v>
+      </c>
+      <c r="N24" s="7">
+        <v>32596</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" s="7">
-        <v>162</v>
-      </c>
-      <c r="I24" s="7">
-        <v>113298</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M24" s="7">
-        <v>375</v>
-      </c>
-      <c r="N24" s="7">
-        <v>259410</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,49 +4243,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="D25" s="7">
-        <v>1294</v>
+        <v>157589</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="7">
+        <v>247</v>
+      </c>
+      <c r="I25" s="7">
+        <v>173535</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" s="7">
+        <v>476</v>
+      </c>
+      <c r="N25" s="7">
+        <v>331123</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>678</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1973</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,46 +4294,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="D26" s="7">
-        <v>7044</v>
+        <v>146112</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="7">
+        <v>162</v>
+      </c>
+      <c r="I26" s="7">
+        <v>113298</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5417</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>375</v>
+      </c>
+      <c r="N26" s="7">
+        <v>259410</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="M26" s="7">
-        <v>18</v>
-      </c>
-      <c r="N26" s="7">
-        <v>12461</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>239</v>
@@ -4351,13 +4351,13 @@
         <v>326766</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
@@ -4366,13 +4366,13 @@
         <v>310798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>917</v>
@@ -4381,13 +4381,13 @@
         <v>637563</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E621EBCE-E5BE-44F7-BB13-8467118C541F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF51A76-564B-4366-B5D5-A03E15CBA396}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4796,49 +4796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
-        <v>12748</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="7">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16649</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="M10" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>29396</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,49 +4847,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>108217</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>103788</v>
+        <v>583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>294</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>212004</v>
+        <v>583</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,49 +4898,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>146148</v>
+        <v>5968</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>135658</v>
+        <v>1550</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="M12" s="7">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>281806</v>
+        <v>7518</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,49 +4949,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>700</v>
+        <v>26423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>1244</v>
+        <v>35365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="N13" s="7">
-        <v>1943</v>
+        <v>61788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,49 +5000,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7">
-        <v>5524</v>
+        <v>43475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="I14" s="7">
-        <v>1301</v>
+        <v>49557</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="N14" s="7">
-        <v>6826</v>
+        <v>93032</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,102 +5051,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>531976</v>
+        <v>162921</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>5968</v>
+        <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1550</v>
+        <v>1244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>7518</v>
+        <v>1943</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,49 +5155,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>26423</v>
+        <v>5524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>35365</v>
+        <v>1301</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>61788</v>
+        <v>6826</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,49 +5206,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>43475</v>
+        <v>12748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>49557</v>
+        <v>16649</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="N18" s="7">
-        <v>93032</v>
+        <v>29396</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,49 +5257,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>108217</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>103788</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>212004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,49 +5308,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>146148</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="I20" s="7">
-        <v>583</v>
+        <v>135658</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M20" s="7">
+        <v>386</v>
+      </c>
+      <c r="N20" s="7">
+        <v>281806</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>583</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,49 +5359,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>241</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>162921</v>
+        <v>531976</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,49 +5412,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>18716</v>
+        <v>700</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>303</v>
       </c>
       <c r="H22" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>18198</v>
+        <v>1244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1943</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="M22" s="7">
-        <v>51</v>
-      </c>
-      <c r="N22" s="7">
-        <v>36914</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,49 +5463,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>134640</v>
+        <v>5524</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1884</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="7">
-        <v>198</v>
-      </c>
-      <c r="I23" s="7">
-        <v>139153</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>10</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7409</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M23" s="7">
-        <v>385</v>
-      </c>
-      <c r="N23" s="7">
-        <v>273792</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,49 +5514,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="D24" s="7">
-        <v>189624</v>
+        <v>18716</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="7">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7">
+        <v>18198</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M24" s="7">
+        <v>51</v>
+      </c>
+      <c r="N24" s="7">
+        <v>36914</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H24" s="7">
-        <v>265</v>
-      </c>
-      <c r="I24" s="7">
-        <v>185215</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M24" s="7">
-        <v>524</v>
-      </c>
-      <c r="N24" s="7">
-        <v>374839</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,49 +5565,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="D25" s="7">
-        <v>700</v>
+        <v>134640</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H25" s="7">
+        <v>198</v>
+      </c>
+      <c r="I25" s="7">
+        <v>139153</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M25" s="7">
+        <v>385</v>
+      </c>
+      <c r="N25" s="7">
+        <v>273792</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1244</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1943</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,46 +5616,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="D26" s="7">
-        <v>5524</v>
+        <v>189624</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>265</v>
+      </c>
+      <c r="I26" s="7">
+        <v>185215</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1884</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>524</v>
+      </c>
+      <c r="N26" s="7">
+        <v>374839</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M26" s="7">
-        <v>10</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7409</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>336</v>
@@ -5673,13 +5673,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>493</v>
@@ -5688,13 +5688,13 @@
         <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>973</v>
@@ -5703,13 +5703,13 @@
         <v>694897</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5728,7 +5728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51125AD9-557A-406C-83A8-27B66C939A87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F652F196-4E21-4058-9D82-43C478FB6F66}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6118,49 +6118,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>12975</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9062</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="M10" s="7">
-        <v>29</v>
-      </c>
-      <c r="N10" s="7">
-        <v>22037</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,49 +6169,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>84367</v>
+        <v>1872</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>61280</v>
+        <v>1003</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>145647</v>
+        <v>2876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,49 +6220,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>122103</v>
+        <v>1303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>136</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>94500</v>
+        <v>1066</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>140</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>359</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
-        <v>248</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>216603</v>
+        <v>2369</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,49 +6271,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>16850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>597</v>
+        <v>12686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>597</v>
+        <v>29536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,49 +6322,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>7217</v>
+        <v>21350</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H14" s="7">
+        <v>26</v>
+      </c>
+      <c r="I14" s="7">
+        <v>20215</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="M14" s="7">
+        <v>51</v>
+      </c>
+      <c r="N14" s="7">
+        <v>41564</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2264</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9481</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,102 +6373,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>226662</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>167703</v>
+        <v>34970</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>483</v>
+        <v>95</v>
       </c>
       <c r="N15" s="7">
-        <v>394365</v>
+        <v>76345</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1066</v>
+        <v>597</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>2369</v>
+        <v>597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,49 +6477,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>16850</v>
+        <v>7217</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>12686</v>
+        <v>2264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>29536</v>
+        <v>9481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,49 +6528,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>21350</v>
+        <v>12975</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>20215</v>
+        <v>9062</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N18" s="7">
-        <v>41564</v>
+        <v>22037</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,49 +6579,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>84367</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>61280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M19" s="7">
+        <v>193</v>
+      </c>
+      <c r="N19" s="7">
+        <v>145647</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,40 +6630,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="D20" s="7">
-        <v>1872</v>
+        <v>122103</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>400</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I20" s="7">
-        <v>1003</v>
+        <v>94500</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>402</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="N20" s="7">
-        <v>2876</v>
+        <v>216603</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>403</v>
@@ -6681,49 +6681,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>226662</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="I21" s="7">
-        <v>34970</v>
+        <v>167703</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>95</v>
+        <v>483</v>
       </c>
       <c r="N21" s="7">
-        <v>76345</v>
+        <v>394365</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,49 +6734,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="7">
-        <v>14278</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="G22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>597</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>597</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="H22" s="7">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7">
-        <v>10128</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M22" s="7">
-        <v>33</v>
-      </c>
-      <c r="N22" s="7">
-        <v>24406</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,49 +6785,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>101217</v>
+        <v>9090</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3267</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M23" s="7">
+        <v>15</v>
+      </c>
+      <c r="N23" s="7">
+        <v>12357</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="H23" s="7">
-        <v>110</v>
-      </c>
-      <c r="I23" s="7">
-        <v>73966</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M23" s="7">
-        <v>230</v>
-      </c>
-      <c r="N23" s="7">
-        <v>175183</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,49 +6836,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>143453</v>
+        <v>14278</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10128</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>33</v>
+      </c>
+      <c r="N24" s="7">
+        <v>24406</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="H24" s="7">
-        <v>140</v>
-      </c>
-      <c r="I24" s="7">
-        <v>114715</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M24" s="7">
-        <v>299</v>
-      </c>
-      <c r="N24" s="7">
-        <v>258168</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,49 +6887,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>101217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>274</v>
+        <v>429</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="I25" s="7">
-        <v>597</v>
+        <v>73966</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>230</v>
+      </c>
+      <c r="N25" s="7">
+        <v>175183</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>597</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,25 +6938,25 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="D26" s="7">
-        <v>9090</v>
+        <v>143453</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>437</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="I26" s="7">
-        <v>3267</v>
+        <v>114715</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>438</v>
@@ -6968,10 +6968,10 @@
         <v>440</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="N26" s="7">
-        <v>12357</v>
+        <v>258168</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>441</v>
@@ -6995,13 +6995,13 @@
         <v>268038</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -7010,13 +7010,13 @@
         <v>202673</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>578</v>
@@ -7025,13 +7025,13 @@
         <v>470710</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F79833DE-8186-449C-BE55-40210BA64E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D0D4A2-B949-4B85-9DCA-665551393235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1C57FDE8-837D-4E35-88B1-7D2D254CEB8F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF3A90C5-2F1D-462E-9B57-BAC9FA8BF487}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="464">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -68,1309 +68,1369 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>1,53%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
+    <t>0,64%</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1441,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1477,39 +1537,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1561,7 +1621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1672,13 +1732,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1687,6 +1740,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1751,19 +1811,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E4DAB-F4AD-483B-93CD-92A08F8B7D50}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990041BF-AD44-43AE-8C5F-7A9F813A2A6E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2154,47 +2234,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,49 +2277,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,47 +2324,41 @@
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,49 +2367,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>26020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,49 +2412,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
-      </c>
-      <c r="D14" s="7">
-        <v>32348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>88</v>
-      </c>
-      <c r="N14" s="7">
-        <v>58281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,102 +2457,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>61763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>59864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>121627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,49 +2555,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>3288</v>
+        <v>55801</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I17" s="7">
-        <v>1726</v>
+        <v>43793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="N17" s="7">
-        <v>5014</v>
+        <v>99594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,49 +2606,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>9802</v>
+        <v>3886</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>12710</v>
+        <v>7527</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N18" s="7">
-        <v>22512</v>
+        <v>11413</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,49 +2657,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>105015</v>
+        <v>2667</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>98537</v>
+        <v>527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>302</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>203552</v>
+        <v>3193</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,49 +2708,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>132556</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>128790</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>261347</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,102 +2759,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>376</v>
+        <v>187</v>
       </c>
       <c r="D21" s="7">
-        <v>250661</v>
+        <v>124116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>735</v>
+        <v>355</v>
       </c>
       <c r="N21" s="7">
-        <v>492425</v>
+        <v>235827</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>103142</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>94859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>198001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,49 +2863,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7">
-        <v>3988</v>
+        <v>75234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="I23" s="7">
-        <v>2253</v>
+        <v>75301</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="N23" s="7">
-        <v>6241</v>
+        <v>150536</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,49 +2914,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>9802</v>
+        <v>5916</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>14575</v>
+        <v>7048</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>24377</v>
+        <v>12964</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,49 +2965,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>131035</v>
+        <v>1322</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>119094</v>
+        <v>1726</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>250129</v>
+        <v>3048</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,49 +3016,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>164905</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>154723</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>319628</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,55 +3067,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>279</v>
+      </c>
+      <c r="D27" s="7">
+        <v>185614</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>543</v>
+      </c>
+      <c r="N27" s="7">
+        <v>364549</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>250</v>
+      </c>
+      <c r="D28" s="7">
+        <v>164905</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="7">
+        <v>230</v>
+      </c>
+      <c r="I28" s="7">
+        <v>154723</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" s="7">
+        <v>480</v>
+      </c>
+      <c r="N28" s="7">
+        <v>319628</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>195</v>
+      </c>
+      <c r="D29" s="7">
+        <v>131035</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="7">
+        <v>177</v>
+      </c>
+      <c r="I29" s="7">
+        <v>119094</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="7">
+        <v>372</v>
+      </c>
+      <c r="N29" s="7">
+        <v>250129</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9802</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="7">
+        <v>21</v>
+      </c>
+      <c r="I30" s="7">
+        <v>14575</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="7">
+        <v>36</v>
+      </c>
+      <c r="N30" s="7">
+        <v>24377</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3988</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2253</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6241</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>309730</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>432</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290646</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>898</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>600376</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3084,8 +3442,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63551FEB-80FD-4B3A-81C2-21DDCF7CAA77}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC8BE88-1C2F-4C5D-BA8A-E397257C90C8}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3101,7 +3459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3476,47 +3834,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,49 +3877,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>747</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,49 +3922,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,49 +3967,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
-      </c>
-      <c r="D13" s="7">
-        <v>35300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
-      </c>
-      <c r="I13" s="7">
-        <v>37109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>101</v>
-      </c>
-      <c r="N13" s="7">
-        <v>72409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,49 +4012,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7">
-        <v>27964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
-      </c>
-      <c r="N14" s="7">
-        <v>56576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,102 +4057,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>68693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>1294</v>
+        <v>69278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>678</v>
+        <v>59935</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="N16" s="7">
-        <v>1973</v>
+        <v>129213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,49 +4155,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7">
-        <v>6219</v>
+        <v>78044</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="I17" s="7">
-        <v>4670</v>
+        <v>80331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="N17" s="7">
-        <v>10889</v>
+        <v>158375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,49 +4206,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6091</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7237</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="7">
         <v>18</v>
       </c>
-      <c r="D18" s="7">
-        <v>12642</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="7">
-        <v>21</v>
-      </c>
-      <c r="I18" s="7">
-        <v>15645</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M18" s="7">
-        <v>39</v>
-      </c>
       <c r="N18" s="7">
-        <v>28287</v>
+        <v>13328</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,49 +4257,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>122289</v>
+        <v>2015</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>136426</v>
+        <v>1786</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
-        <v>375</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>258714</v>
+        <v>3801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,49 +4308,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>118148</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>84686</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>202834</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,102 +4359,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>260592</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="I21" s="7">
-        <v>242105</v>
+        <v>149289</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>728</v>
+        <v>436</v>
       </c>
       <c r="N21" s="7">
-        <v>502696</v>
+        <v>304716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D22" s="7">
-        <v>1294</v>
+        <v>76834</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I22" s="7">
-        <v>678</v>
+        <v>53363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="N22" s="7">
-        <v>1973</v>
+        <v>130197</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,49 +4463,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D23" s="7">
-        <v>7044</v>
+        <v>79545</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="I23" s="7">
-        <v>5417</v>
+        <v>93203</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="N23" s="7">
-        <v>12461</v>
+        <v>172748</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,49 +4514,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>14726</v>
+        <v>8636</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>17869</v>
+        <v>10632</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N24" s="7">
-        <v>32596</v>
+        <v>19268</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,49 +4565,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>157589</v>
+        <v>5030</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
-        <v>247</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>173535</v>
+        <v>3631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
-        <v>476</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>331123</v>
+        <v>8661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,49 +4616,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1294</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>678</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1973</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="D26" s="7">
-        <v>146112</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" s="7">
-        <v>162</v>
-      </c>
-      <c r="I26" s="7">
-        <v>113298</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M26" s="7">
-        <v>375</v>
-      </c>
-      <c r="N26" s="7">
-        <v>259410</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,55 +4667,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>252</v>
+      </c>
+      <c r="D27" s="7">
+        <v>171339</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>229</v>
+      </c>
+      <c r="I27" s="7">
+        <v>161508</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>481</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332847</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>213</v>
+      </c>
+      <c r="D28" s="7">
+        <v>146112</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="7">
+        <v>162</v>
+      </c>
+      <c r="I28" s="7">
+        <v>113298</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" s="7">
+        <v>375</v>
+      </c>
+      <c r="N28" s="7">
+        <v>259410</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>229</v>
+      </c>
+      <c r="D29" s="7">
+        <v>157589</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" s="7">
+        <v>247</v>
+      </c>
+      <c r="I29" s="7">
+        <v>173535</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" s="7">
+        <v>476</v>
+      </c>
+      <c r="N29" s="7">
+        <v>331123</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7">
+        <v>14726</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="7">
+        <v>24</v>
+      </c>
+      <c r="I30" s="7">
+        <v>17869</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" s="7">
+        <v>45</v>
+      </c>
+      <c r="N30" s="7">
+        <v>32596</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7044</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5417</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" s="7">
+        <v>18</v>
+      </c>
+      <c r="N31" s="7">
+        <v>12461</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1294</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>678</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1973</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>475</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>326766</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>442</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>310798</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>917</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>637563</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4406,8 +5042,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF51A76-564B-4366-B5D5-A03E15CBA396}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3691FE3B-FE12-4023-B082-2C4DC5C1F54B}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4423,7 +5059,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4798,47 +5434,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,47 +5479,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,49 +5522,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>11</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,49 +5567,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7">
-        <v>26423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
-      </c>
-      <c r="I13" s="7">
-        <v>35365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>91</v>
-      </c>
-      <c r="N13" s="7">
-        <v>61788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,49 +5612,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>63</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>75</v>
-      </c>
-      <c r="I14" s="7">
-        <v>49557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>138</v>
-      </c>
-      <c r="N14" s="7">
-        <v>93032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,102 +5657,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>241</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D16" s="7">
-        <v>700</v>
+        <v>102714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="I16" s="7">
-        <v>1244</v>
+        <v>105702</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="N16" s="7">
-        <v>1943</v>
+        <v>208416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,49 +5755,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>5524</v>
+        <v>63881</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="7">
+        <v>99</v>
+      </c>
+      <c r="I17" s="7">
+        <v>68619</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" s="7">
+        <v>188</v>
+      </c>
+      <c r="N17" s="7">
+        <v>132500</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1301</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
-      <c r="N17" s="7">
-        <v>6826</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,49 +5806,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>12748</v>
+        <v>8249</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5366</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H18" s="7">
-        <v>23</v>
-      </c>
-      <c r="I18" s="7">
-        <v>16649</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>19</v>
+      </c>
+      <c r="N18" s="7">
+        <v>13615</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M18" s="7">
-        <v>40</v>
-      </c>
-      <c r="N18" s="7">
-        <v>29396</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,49 +5857,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>108217</v>
+        <v>3067</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>583</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3650</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H19" s="7">
-        <v>145</v>
-      </c>
-      <c r="I19" s="7">
-        <v>103788</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M19" s="7">
-        <v>294</v>
-      </c>
-      <c r="N19" s="7">
-        <v>212004</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,49 +5908,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>146148</v>
+        <v>700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>135658</v>
+        <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
-        <v>386</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>281806</v>
+        <v>1317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,102 +5959,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>509</v>
       </c>
       <c r="N21" s="7">
-        <v>531976</v>
+        <v>359498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D22" s="7">
-        <v>700</v>
+        <v>86910</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="I22" s="7">
-        <v>1244</v>
+        <v>79513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="N22" s="7">
-        <v>1943</v>
+        <v>166423</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,49 +6063,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7">
-        <v>5524</v>
+        <v>70759</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" s="7">
+        <v>99</v>
+      </c>
+      <c r="I23" s="7">
+        <v>70534</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M23" s="7">
+        <v>197</v>
+      </c>
+      <c r="N23" s="7">
+        <v>141292</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1884</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M23" s="7">
-        <v>10</v>
-      </c>
-      <c r="N23" s="7">
-        <v>7409</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,49 +6114,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>18716</v>
+        <v>10467</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>309</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H24" s="7">
+        <v>18</v>
+      </c>
+      <c r="I24" s="7">
+        <v>12832</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H24" s="7">
-        <v>25</v>
-      </c>
-      <c r="I24" s="7">
-        <v>18198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>32</v>
+      </c>
+      <c r="N24" s="7">
+        <v>23299</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M24" s="7">
-        <v>51</v>
-      </c>
-      <c r="N24" s="7">
-        <v>36914</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,49 +6165,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>134640</v>
+        <v>2457</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1301</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H25" s="7">
-        <v>198</v>
-      </c>
-      <c r="I25" s="7">
-        <v>139153</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3759</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M25" s="7">
-        <v>385</v>
-      </c>
-      <c r="N25" s="7">
-        <v>273792</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,49 +6216,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>189624</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>328</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="H26" s="7">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>185215</v>
+        <v>626</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>374839</v>
+        <v>626</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>335</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,55 +6267,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>259</v>
+      </c>
+      <c r="D28" s="7">
+        <v>189624</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" s="7">
+        <v>265</v>
+      </c>
+      <c r="I28" s="7">
+        <v>185215</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M28" s="7">
+        <v>524</v>
+      </c>
+      <c r="N28" s="7">
+        <v>374839</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>187</v>
+      </c>
+      <c r="D29" s="7">
+        <v>134640</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H29" s="7">
+        <v>198</v>
+      </c>
+      <c r="I29" s="7">
+        <v>139153</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="7">
+        <v>385</v>
+      </c>
+      <c r="N29" s="7">
+        <v>273792</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18716</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" s="7">
+        <v>25</v>
+      </c>
+      <c r="I30" s="7">
+        <v>18198</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M30" s="7">
+        <v>51</v>
+      </c>
+      <c r="N30" s="7">
+        <v>36914</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5524</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1884</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7409</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>700</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1244</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1943</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345694</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>973</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>694897</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5728,8 +6642,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F652F196-4E21-4058-9D82-43C478FB6F66}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B18475B-5CC2-4A9B-B789-DDD9CDFB9073}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5745,7 +6659,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6120,47 +7034,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,49 +7077,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,49 +7122,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,49 +7167,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7">
-        <v>16850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
-      </c>
-      <c r="N13" s="7">
-        <v>29536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,49 +7212,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7">
-        <v>21350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>51</v>
-      </c>
-      <c r="N14" s="7">
-        <v>41564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,102 +7257,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>95</v>
-      </c>
-      <c r="N15" s="7">
-        <v>76345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>51722</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="7">
+        <v>49</v>
+      </c>
+      <c r="I16" s="7">
+        <v>38878</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M16" s="7">
+        <v>109</v>
+      </c>
+      <c r="N16" s="7">
+        <v>90600</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>597</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>597</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,49 +7355,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>7217</v>
+        <v>39588</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>39</v>
+      </c>
+      <c r="I17" s="7">
+        <v>28026</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2264</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>9481</v>
+        <v>67615</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,25 +7406,25 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>12975</v>
+        <v>3399</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>382</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>9062</v>
+        <v>3066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>383</v>
@@ -6558,19 +7436,19 @@
         <v>385</v>
       </c>
       <c r="M18" s="7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>22037</v>
+        <v>6465</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>388</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,49 +7457,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>84367</v>
+        <v>4638</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1823</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6461</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="H19" s="7">
-        <v>93</v>
-      </c>
-      <c r="I19" s="7">
-        <v>61280</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M19" s="7">
-        <v>193</v>
-      </c>
-      <c r="N19" s="7">
-        <v>145647</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,49 +7508,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>122103</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>399</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>94500</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>216603</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,102 +7559,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>226662</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>167703</v>
+        <v>71792</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>483</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>394365</v>
+        <v>171141</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>91731</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>597</v>
+        <v>75837</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="N22" s="7">
-        <v>597</v>
+        <v>167568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,49 +7663,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D23" s="7">
-        <v>9090</v>
+        <v>61629</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H23" s="7">
+        <v>71</v>
+      </c>
+      <c r="I23" s="7">
+        <v>45940</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M23" s="7">
+        <v>143</v>
+      </c>
+      <c r="N23" s="7">
+        <v>107569</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="H23" s="7">
-        <v>4</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3267</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="M23" s="7">
-        <v>15</v>
-      </c>
-      <c r="N23" s="7">
-        <v>12357</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,49 +7714,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>14278</v>
+        <v>10879</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7062</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>23</v>
+      </c>
+      <c r="N24" s="7">
+        <v>17941</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="H24" s="7">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7">
-        <v>10128</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M24" s="7">
-        <v>33</v>
-      </c>
-      <c r="N24" s="7">
-        <v>24406</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,49 +7765,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>101217</v>
+        <v>4451</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H25" s="7">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>73966</v>
+        <v>1444</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M25" s="7">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>175183</v>
+        <v>5896</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>389</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,49 +7816,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>143453</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>114715</v>
+        <v>597</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>258168</v>
+        <v>597</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,55 +7867,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>189</v>
+      </c>
+      <c r="D27" s="7">
+        <v>168690</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>364</v>
+      </c>
+      <c r="N27" s="7">
+        <v>299570</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>159</v>
+      </c>
+      <c r="D28" s="7">
+        <v>143453</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H28" s="7">
+        <v>140</v>
+      </c>
+      <c r="I28" s="7">
+        <v>114715</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="M28" s="7">
+        <v>299</v>
+      </c>
+      <c r="N28" s="7">
+        <v>258168</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>120</v>
+      </c>
+      <c r="D29" s="7">
+        <v>101217</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H29" s="7">
+        <v>110</v>
+      </c>
+      <c r="I29" s="7">
+        <v>73966</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M29" s="7">
+        <v>230</v>
+      </c>
+      <c r="N29" s="7">
+        <v>175183</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7">
+        <v>14278</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10128</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M30" s="7">
+        <v>33</v>
+      </c>
+      <c r="N30" s="7">
+        <v>24406</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9090</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3267</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M31" s="7">
+        <v>15</v>
+      </c>
+      <c r="N31" s="7">
+        <v>12357</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>597</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>597</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>308</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>268038</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202673</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>578</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>470710</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D0D4A2-B949-4B85-9DCA-665551393235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{360E2C63-949E-481B-81B5-B47E01F5AE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF3A90C5-2F1D-462E-9B57-BAC9FA8BF487}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{554E2CA5-7F2B-45A4-A610-73AFECA15C48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="456">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -98,7 +98,7 @@
     <t>49,76%</t>
   </si>
   <si>
-    <t>42,83%</t>
+    <t>42,98%</t>
   </si>
   <si>
     <t>57,04%</t>
@@ -107,1330 +107,1306 @@
     <t>53,59%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
   </si>
   <si>
     <t>44,96%</t>
   </si>
   <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
     <t>37,76%</t>
   </si>
   <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,53%</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990041BF-AD44-43AE-8C5F-7A9F813A2A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EBD900-3CFF-48D4-A814-DF5248CEE55E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2890,7 +2866,7 @@
         <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>224</v>
@@ -2899,13 +2875,13 @@
         <v>150536</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2896,13 @@
         <v>5916</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -2935,13 +2911,13 @@
         <v>7048</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2950,13 +2926,13 @@
         <v>12964</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2947,13 @@
         <v>1322</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2986,13 +2962,13 @@
         <v>1726</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3001,13 +2977,13 @@
         <v>3048</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,7 +3004,7 @@
         <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3043,7 +3019,7 @@
         <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3058,7 +3034,7 @@
         <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3102,13 @@
         <v>164905</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>230</v>
@@ -3141,13 +3117,13 @@
         <v>154723</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>480</v>
@@ -3156,13 +3132,13 @@
         <v>319628</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3153,13 @@
         <v>131035</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H29" s="7">
         <v>177</v>
@@ -3192,13 +3168,13 @@
         <v>119094</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M29" s="7">
         <v>372</v>
@@ -3207,13 +3183,13 @@
         <v>250129</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3204,13 @@
         <v>9802</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -3243,13 +3219,13 @@
         <v>14575</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -3258,13 +3234,13 @@
         <v>24377</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3255,13 @@
         <v>3988</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -3294,13 +3270,13 @@
         <v>2253</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3309,13 +3285,13 @@
         <v>6241</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,7 +3312,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3351,7 +3327,7 @@
         <v>54</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3366,7 +3342,7 @@
         <v>54</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,7 +3398,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3442,7 +3418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC8BE88-1C2F-4C5D-BA8A-E397257C90C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66363237-A26F-4D30-B3F6-1B2EA4590633}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,7 +3435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4110,13 +4086,13 @@
         <v>69278</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -4125,13 +4101,13 @@
         <v>59935</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -4140,13 +4116,13 @@
         <v>129213</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4137,13 @@
         <v>78044</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -4176,10 +4152,10 @@
         <v>80331</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>149</v>
@@ -4296,10 +4272,10 @@
         <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,7 +4296,7 @@
         <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4335,7 +4311,7 @@
         <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4350,7 +4326,7 @@
         <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4394,13 @@
         <v>76834</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4433,13 +4409,13 @@
         <v>53363</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M22" s="7">
         <v>188</v>
@@ -4448,13 +4424,13 @@
         <v>130197</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4445,13 @@
         <v>79545</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H23" s="7">
         <v>134</v>
@@ -4484,13 +4460,13 @@
         <v>93203</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M23" s="7">
         <v>251</v>
@@ -4499,13 +4475,13 @@
         <v>172748</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4496,13 @@
         <v>8636</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -4535,13 +4511,13 @@
         <v>10632</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -4550,13 +4526,13 @@
         <v>19268</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4547,13 @@
         <v>5030</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4586,13 +4562,13 @@
         <v>3631</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4601,13 +4577,13 @@
         <v>8661</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4598,13 @@
         <v>1294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4637,13 +4613,13 @@
         <v>678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4652,13 +4628,13 @@
         <v>1973</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4702,13 @@
         <v>146112</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -4741,13 +4717,13 @@
         <v>113298</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M28" s="7">
         <v>375</v>
@@ -4756,13 +4732,13 @@
         <v>259410</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4753,13 @@
         <v>157589</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H29" s="7">
         <v>247</v>
@@ -4792,13 +4768,13 @@
         <v>173535</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M29" s="7">
         <v>476</v>
@@ -4807,13 +4783,13 @@
         <v>331123</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4804,13 @@
         <v>14726</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -4843,13 +4819,13 @@
         <v>17869</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
@@ -4858,13 +4834,13 @@
         <v>32596</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4855,13 @@
         <v>7044</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -4894,13 +4870,13 @@
         <v>5417</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -4909,13 +4885,13 @@
         <v>12461</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4906,13 @@
         <v>1294</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4945,13 +4921,13 @@
         <v>678</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -4960,13 +4936,13 @@
         <v>1973</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +4998,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5042,7 +5018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3691FE3B-FE12-4023-B082-2C4DC5C1F54B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9469A553-58B1-4148-BFA5-A25CB46EF3AD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5059,7 +5035,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5710,13 +5686,13 @@
         <v>102714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>151</v>
@@ -5725,13 +5701,13 @@
         <v>105702</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>295</v>
@@ -5740,13 +5716,13 @@
         <v>208416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5737,13 @@
         <v>63881</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -5776,13 +5752,13 @@
         <v>68619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>188</v>
@@ -5791,13 +5767,13 @@
         <v>132500</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5788,13 @@
         <v>8249</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -5827,13 +5803,13 @@
         <v>5366</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -5842,13 +5818,13 @@
         <v>13615</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5839,13 @@
         <v>3067</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5878,13 +5854,13 @@
         <v>583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5896,10 +5872,10 @@
         <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5890,13 @@
         <v>700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5929,13 +5905,13 @@
         <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5944,13 +5920,13 @@
         <v>1317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +5994,13 @@
         <v>86910</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -6033,13 +6009,13 @@
         <v>79513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>229</v>
@@ -6048,13 +6024,13 @@
         <v>166423</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6045,13 @@
         <v>70759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>99</v>
@@ -6084,13 +6060,13 @@
         <v>70534</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>304</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>197</v>
@@ -6099,13 +6075,13 @@
         <v>141292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6096,13 @@
         <v>10467</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -6135,13 +6111,13 @@
         <v>12832</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -6150,13 +6126,13 @@
         <v>23299</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6147,13 @@
         <v>2457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6186,13 +6162,13 @@
         <v>1301</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6201,13 +6177,13 @@
         <v>3759</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,7 +6204,7 @@
         <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6237,13 +6213,13 @@
         <v>626</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6252,13 +6228,13 @@
         <v>626</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6302,13 @@
         <v>189624</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H28" s="7">
         <v>265</v>
@@ -6341,13 +6317,13 @@
         <v>185215</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M28" s="7">
         <v>524</v>
@@ -6356,13 +6332,13 @@
         <v>374839</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>334</v>
+        <v>67</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6353,13 @@
         <v>134640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H29" s="7">
         <v>198</v>
@@ -6392,13 +6368,13 @@
         <v>139153</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>385</v>
@@ -6407,13 +6383,13 @@
         <v>273792</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6404,13 @@
         <v>18716</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -6443,13 +6419,13 @@
         <v>18198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -6458,13 +6434,13 @@
         <v>36914</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6455,13 @@
         <v>5524</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -6494,13 +6470,13 @@
         <v>1884</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -6509,13 +6485,13 @@
         <v>7409</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>57</v>
+        <v>348</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6506,13 @@
         <v>700</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6545,13 +6521,13 @@
         <v>1244</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6560,13 +6536,13 @@
         <v>1943</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,7 +6598,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6642,7 +6618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B18475B-5CC2-4A9B-B789-DDD9CDFB9073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4C88B9-B565-4794-83AB-D3F64381FDD1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6659,7 +6635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7310,13 +7286,13 @@
         <v>51722</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -7325,13 +7301,13 @@
         <v>38878</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -7340,13 +7316,13 @@
         <v>90600</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7337,13 @@
         <v>39588</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -7376,13 +7352,13 @@
         <v>28026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -7391,13 +7367,13 @@
         <v>67615</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7388,13 @@
         <v>3399</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -7427,13 +7403,13 @@
         <v>3066</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -7442,13 +7418,13 @@
         <v>6465</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,13 +7439,13 @@
         <v>4638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7478,13 +7454,13 @@
         <v>1823</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>50</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -7493,13 +7469,13 @@
         <v>6461</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,7 +7496,7 @@
         <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7535,7 +7511,7 @@
         <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7550,7 +7526,7 @@
         <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7594,13 @@
         <v>91731</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -7633,13 +7609,13 @@
         <v>75837</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -7648,13 +7624,13 @@
         <v>167568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7645,13 @@
         <v>61629</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>71</v>
@@ -7684,13 +7660,13 @@
         <v>45940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>143</v>
@@ -7699,13 +7675,13 @@
         <v>107569</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7696,13 @@
         <v>10879</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -7735,13 +7711,13 @@
         <v>7062</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -7750,13 +7726,13 @@
         <v>17941</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,13 +7747,13 @@
         <v>4451</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7786,13 +7762,13 @@
         <v>1444</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7801,13 +7777,13 @@
         <v>5896</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>195</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,7 +7804,7 @@
         <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7837,13 +7813,13 @@
         <v>597</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7852,13 +7828,13 @@
         <v>597</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,13 +7902,13 @@
         <v>143453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H28" s="7">
         <v>140</v>
@@ -7941,13 +7917,13 @@
         <v>114715</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M28" s="7">
         <v>299</v>
@@ -7956,13 +7932,13 @@
         <v>258168</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,13 +7953,13 @@
         <v>101217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H29" s="7">
         <v>110</v>
@@ -7992,13 +7968,13 @@
         <v>73966</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>230</v>
@@ -8007,13 +7983,13 @@
         <v>175183</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,13 +8004,13 @@
         <v>14278</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -8043,13 +8019,13 @@
         <v>10128</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -8058,13 +8034,13 @@
         <v>24406</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>452</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8055,13 @@
         <v>9090</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>390</v>
+        <v>154</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -8094,13 +8070,13 @@
         <v>3267</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>455</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -8109,13 +8085,13 @@
         <v>12357</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>457</v>
+        <v>313</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,7 +8112,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -8151,7 +8127,7 @@
         <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8160,13 +8136,13 @@
         <v>597</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8222,7 +8198,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{360E2C63-949E-481B-81B5-B47E01F5AE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C015B8A-B758-48C0-8829-52D96F2A1A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{554E2CA5-7F2B-45A4-A610-73AFECA15C48}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B276EC30-2982-4FC8-90D3-27EB9835E15F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="448">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -95,1318 +95,1294 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
     <t>49,76%</t>
   </si>
   <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
   </si>
   <si>
     <t>44,96%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EBD900-3CFF-48D4-A814-DF5248CEE55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C5392-D2BE-4770-80EA-B4D939A069E4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2480,10 +2456,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>61763</v>
+        <v>59864</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2495,10 +2471,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7">
-        <v>59864</v>
+        <v>61763</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2531,10 +2507,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>55801</v>
+        <v>43793</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2546,10 +2522,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I17" s="7">
-        <v>43793</v>
+        <v>55801</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2582,10 +2558,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>3886</v>
+        <v>7527</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2597,10 +2573,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>7527</v>
+        <v>3886</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2633,10 +2609,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>2667</v>
+        <v>527</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2648,10 +2624,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>527</v>
+        <v>2667</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2690,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>54</v>
@@ -2705,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>54</v>
@@ -2720,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>54</v>
@@ -2735,25 +2711,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>187</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>124116</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -2788,10 +2764,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D22" s="7">
-        <v>103142</v>
+        <v>94859</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>60</v>
@@ -2803,10 +2779,10 @@
         <v>62</v>
       </c>
       <c r="H22" s="7">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="I22" s="7">
-        <v>94859</v>
+        <v>103142</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>63</v>
@@ -2839,10 +2815,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7">
-        <v>75234</v>
+        <v>75301</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>69</v>
@@ -2854,10 +2830,10 @@
         <v>71</v>
       </c>
       <c r="H23" s="7">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I23" s="7">
-        <v>75301</v>
+        <v>75234</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>72</v>
@@ -2866,7 +2842,7 @@
         <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
         <v>224</v>
@@ -2875,13 +2851,13 @@
         <v>150536</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,25 +2866,25 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7048</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>5916</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7048</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>80</v>
@@ -2941,31 +2917,31 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>1322</v>
+        <v>1726</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>1726</v>
+        <v>1322</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>90</v>
@@ -2998,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>54</v>
@@ -3013,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>54</v>
@@ -3028,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>54</v>
@@ -3043,25 +3019,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>279</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>185614</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -3096,10 +3072,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D28" s="7">
-        <v>164905</v>
+        <v>154723</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>97</v>
@@ -3111,10 +3087,10 @@
         <v>99</v>
       </c>
       <c r="H28" s="7">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="I28" s="7">
-        <v>154723</v>
+        <v>164905</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>100</v>
@@ -3132,7 +3108,7 @@
         <v>319628</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>103</v>
@@ -3147,10 +3123,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D29" s="7">
-        <v>131035</v>
+        <v>119094</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>105</v>
@@ -3162,10 +3138,10 @@
         <v>107</v>
       </c>
       <c r="H29" s="7">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="I29" s="7">
-        <v>119094</v>
+        <v>131035</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>108</v>
@@ -3198,10 +3174,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D30" s="7">
-        <v>9802</v>
+        <v>14575</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>114</v>
@@ -3213,19 +3189,19 @@
         <v>116</v>
       </c>
       <c r="H30" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>14575</v>
+        <v>9802</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -3234,13 +3210,13 @@
         <v>24377</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,25 +3225,25 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2253</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="7">
         <v>6</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>3988</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2253</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>125</v>
@@ -3276,7 +3252,7 @@
         <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3285,13 +3261,13 @@
         <v>6241</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3321,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3336,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,25 +3327,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>466</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>309730</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>432</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290646</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -3398,7 +3374,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3418,7 +3394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66363237-A26F-4D30-B3F6-1B2EA4590633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9E46D3-4E85-447C-B645-FCE68C1DCB94}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3435,7 +3411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4080,34 +4056,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7">
+        <v>59935</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="7">
         <v>100</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>69278</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="7">
-        <v>87</v>
-      </c>
-      <c r="I16" s="7">
-        <v>59935</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -4116,13 +4092,13 @@
         <v>129213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,10 +4107,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17" s="7">
-        <v>78044</v>
+        <v>80331</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>144</v>
@@ -4146,10 +4122,10 @@
         <v>146</v>
       </c>
       <c r="H17" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I17" s="7">
-        <v>80331</v>
+        <v>78044</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>147</v>
@@ -4182,10 +4158,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>6091</v>
+        <v>7237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>153</v>
@@ -4197,10 +4173,10 @@
         <v>155</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>7237</v>
+        <v>6091</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>156</v>
@@ -4236,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>2015</v>
+        <v>1786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>162</v>
@@ -4251,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1786</v>
+        <v>2015</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>165</v>
@@ -4272,7 +4248,7 @@
         <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>169</v>
@@ -4290,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>54</v>
@@ -4305,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>54</v>
@@ -4320,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>54</v>
@@ -4335,25 +4311,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>213</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149289</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>213</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149289</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -4388,10 +4364,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7">
-        <v>76834</v>
+        <v>53363</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>172</v>
@@ -4403,10 +4379,10 @@
         <v>174</v>
       </c>
       <c r="H22" s="7">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="I22" s="7">
-        <v>53363</v>
+        <v>76834</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>175</v>
@@ -4439,10 +4415,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D23" s="7">
-        <v>79545</v>
+        <v>93203</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>181</v>
@@ -4454,10 +4430,10 @@
         <v>183</v>
       </c>
       <c r="H23" s="7">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I23" s="7">
-        <v>93203</v>
+        <v>79545</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>184</v>
@@ -4481,7 +4457,7 @@
         <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,34 +4466,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10632</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="7">
         <v>13</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>8636</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H24" s="7">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7">
-        <v>10632</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -4526,13 +4502,13 @@
         <v>19268</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,34 +4517,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3631</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5030</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3631</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4577,13 +4553,13 @@
         <v>8661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,34 +4568,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>678</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1294</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>678</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4628,13 +4604,13 @@
         <v>1973</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,25 +4619,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>161508</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>252</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>171339</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>229</v>
-      </c>
-      <c r="I27" s="7">
-        <v>161508</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -4696,34 +4672,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>162</v>
+      </c>
+      <c r="D28" s="7">
+        <v>113298</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="7">
+      <c r="H28" s="7">
+        <v>213</v>
+      </c>
+      <c r="I28" s="7">
         <v>146112</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="7">
-        <v>162</v>
-      </c>
-      <c r="I28" s="7">
-        <v>113298</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M28" s="7">
         <v>375</v>
@@ -4732,13 +4708,13 @@
         <v>259410</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,34 +4723,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>247</v>
+      </c>
+      <c r="D29" s="7">
+        <v>173535</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="7">
         <v>229</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>157589</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="H29" s="7">
-        <v>247</v>
-      </c>
-      <c r="I29" s="7">
-        <v>173535</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>476</v>
@@ -4783,13 +4759,13 @@
         <v>331123</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,34 +4774,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>24</v>
+      </c>
+      <c r="D30" s="7">
+        <v>17869</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="7">
         <v>21</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>14726</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="7">
-        <v>24</v>
-      </c>
-      <c r="I30" s="7">
-        <v>17869</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
@@ -4834,13 +4810,13 @@
         <v>32596</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,34 +4825,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5417</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="7">
         <v>10</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>7044</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H31" s="7">
-        <v>8</v>
-      </c>
-      <c r="I31" s="7">
-        <v>5417</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -4885,13 +4861,13 @@
         <v>12461</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,34 +4876,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>678</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1294</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>678</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -4939,10 +4915,10 @@
         <v>92</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,25 +4927,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>442</v>
+      </c>
+      <c r="D33" s="7">
+        <v>310798</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>326766</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>442</v>
-      </c>
-      <c r="I33" s="7">
-        <v>310798</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -4998,7 +4974,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5018,7 +4994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9469A553-58B1-4148-BFA5-A25CB46EF3AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DFFD27-FD91-4F63-A13E-FEC66022FD32}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5035,7 +5011,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5680,34 +5656,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>151</v>
+      </c>
+      <c r="D16" s="7">
+        <v>105702</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="7">
         <v>144</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>102714</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H16" s="7">
-        <v>151</v>
-      </c>
-      <c r="I16" s="7">
-        <v>105702</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>295</v>
@@ -5716,13 +5692,13 @@
         <v>208416</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,34 +5707,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7">
+        <v>68619</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="7">
         <v>89</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>63881</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H17" s="7">
-        <v>99</v>
-      </c>
-      <c r="I17" s="7">
-        <v>68619</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>188</v>
@@ -5767,13 +5743,13 @@
         <v>132500</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,34 +5758,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5366</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8249</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5366</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -5818,13 +5794,13 @@
         <v>13615</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,34 +5809,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>583</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>3067</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>583</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5869,13 +5845,13 @@
         <v>3650</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>279</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,31 +5863,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>700</v>
+        <v>617</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5920,13 +5896,13 @@
         <v>1317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,25 +5911,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -5988,34 +5964,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>114</v>
+      </c>
+      <c r="D22" s="7">
+        <v>79513</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="7">
         <v>115</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>86910</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="7">
-        <v>114</v>
-      </c>
-      <c r="I22" s="7">
-        <v>79513</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>229</v>
@@ -6024,13 +6000,13 @@
         <v>166423</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,34 +6015,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>99</v>
+      </c>
+      <c r="D23" s="7">
+        <v>70534</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23" s="7">
         <v>98</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>70759</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H23" s="7">
-        <v>99</v>
-      </c>
-      <c r="I23" s="7">
-        <v>70534</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>197</v>
@@ -6078,10 +6054,10 @@
         <v>298</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,34 +6066,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12832</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H24" s="7">
         <v>14</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>10467</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H24" s="7">
-        <v>18</v>
-      </c>
-      <c r="I24" s="7">
-        <v>12832</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -6126,13 +6102,13 @@
         <v>23299</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,34 +6117,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1301</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2457</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1301</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6177,13 +6153,13 @@
         <v>3759</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,34 +6168,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>626</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6228,13 +6204,13 @@
         <v>626</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,25 +6219,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -6296,34 +6272,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>265</v>
+      </c>
+      <c r="D28" s="7">
+        <v>185215</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H28" s="7">
         <v>259</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>189624</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H28" s="7">
-        <v>265</v>
-      </c>
-      <c r="I28" s="7">
-        <v>185215</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M28" s="7">
         <v>524</v>
@@ -6332,13 +6308,13 @@
         <v>374839</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,34 +6323,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>198</v>
+      </c>
+      <c r="D29" s="7">
+        <v>139153</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H29" s="7">
         <v>187</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>134640</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="H29" s="7">
-        <v>198</v>
-      </c>
-      <c r="I29" s="7">
-        <v>139153</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>385</v>
@@ -6383,13 +6359,13 @@
         <v>273792</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,34 +6374,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18198</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H30" s="7">
         <v>26</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>18716</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="H30" s="7">
-        <v>25</v>
-      </c>
-      <c r="I30" s="7">
-        <v>18198</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -6434,13 +6410,13 @@
         <v>36914</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,34 +6425,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1884</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5524</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1884</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -6485,13 +6461,13 @@
         <v>7409</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,34 +6476,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1244</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>700</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1244</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6536,10 +6512,10 @@
         <v>1943</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>206</v>
@@ -6551,25 +6527,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>493</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>493</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345694</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -6598,7 +6574,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6618,7 +6594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4C88B9-B565-4794-83AB-D3F64381FDD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C04B32-2301-4FD0-B982-BA4FD0F3F8D4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6635,7 +6611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7280,49 +7256,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36165</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" s="7">
         <v>60</v>
       </c>
-      <c r="D16" s="7">
-        <v>51722</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>51346</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H16" s="7">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38878</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
       </c>
       <c r="N16" s="7">
-        <v>90600</v>
+        <v>87510</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,49 +7307,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7">
+        <v>26864</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H17" s="7">
         <v>48</v>
       </c>
-      <c r="D17" s="7">
-        <v>39588</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>39693</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H17" s="7">
-        <v>39</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28026</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>67615</v>
+        <v>66557</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,46 +7361,46 @@
         <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>3399</v>
+        <v>3085</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>3066</v>
+        <v>3475</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>6465</v>
+        <v>6560</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>156</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,49 +7409,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1818</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="D19" s="7">
-        <v>4638</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
       <c r="I19" s="7">
-        <v>1823</v>
+        <v>4851</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>6461</v>
+        <v>6670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7466,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7505,13 +7481,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7520,13 +7496,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,25 +7511,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67932</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
       <c r="I21" s="7">
-        <v>71792</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -7568,7 +7544,7 @@
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>171141</v>
+        <v>167297</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -7588,49 +7564,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>91</v>
+      </c>
+      <c r="D22" s="7">
+        <v>89725</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H22" s="7">
         <v>99</v>
       </c>
-      <c r="D22" s="7">
-        <v>91731</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>96354</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H22" s="7">
-        <v>91</v>
-      </c>
-      <c r="I22" s="7">
-        <v>75837</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
       </c>
       <c r="N22" s="7">
-        <v>167568</v>
+        <v>186079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,49 +7615,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>71</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43881</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H23" s="7">
         <v>72</v>
       </c>
-      <c r="D23" s="7">
-        <v>61629</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H23" s="7">
-        <v>71</v>
-      </c>
       <c r="I23" s="7">
-        <v>45940</v>
+        <v>62051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M23" s="7">
         <v>143</v>
       </c>
       <c r="N23" s="7">
-        <v>107569</v>
+        <v>105932</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,49 +7666,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6932</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H24" s="7">
         <v>13</v>
       </c>
-      <c r="D24" s="7">
-        <v>10879</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
       <c r="I24" s="7">
-        <v>7062</v>
+        <v>10911</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>17941</v>
+        <v>17843</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,49 +7717,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1419</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
-        <v>4451</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>4335</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1444</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>5896</v>
+        <v>5754</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>410</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>411</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>417</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,49 +7768,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>597</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,25 +7819,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>189</v>
       </c>
-      <c r="D27" s="7">
-        <v>168690</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>175</v>
-      </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>173651</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -7876,7 +7852,7 @@
         <v>364</v>
       </c>
       <c r="N27" s="7">
-        <v>299570</v>
+        <v>316198</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -7896,49 +7872,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>140</v>
+      </c>
+      <c r="D28" s="7">
+        <v>125890</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H28" s="7">
         <v>159</v>
       </c>
-      <c r="D28" s="7">
-        <v>143453</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H28" s="7">
-        <v>140</v>
-      </c>
       <c r="I28" s="7">
-        <v>114715</v>
+        <v>147699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M28" s="7">
         <v>299</v>
       </c>
       <c r="N28" s="7">
-        <v>258168</v>
+        <v>273589</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,49 +7923,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>110</v>
+      </c>
+      <c r="D29" s="7">
+        <v>70744</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H29" s="7">
         <v>120</v>
       </c>
-      <c r="D29" s="7">
-        <v>101217</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H29" s="7">
-        <v>110</v>
-      </c>
       <c r="I29" s="7">
-        <v>73966</v>
+        <v>101744</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>434</v>
+        <v>361</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M29" s="7">
         <v>230</v>
       </c>
       <c r="N29" s="7">
-        <v>175183</v>
+        <v>172488</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,49 +7974,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10017</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H30" s="7">
         <v>18</v>
       </c>
-      <c r="D30" s="7">
-        <v>14278</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H30" s="7">
-        <v>15</v>
-      </c>
       <c r="I30" s="7">
-        <v>10128</v>
+        <v>14386</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
       </c>
       <c r="N30" s="7">
-        <v>24406</v>
+        <v>24403</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>118</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,49 +8025,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>9090</v>
+        <v>3238</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H31" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I31" s="7">
-        <v>3267</v>
+        <v>9186</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>441</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>449</v>
+        <v>268</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
       </c>
       <c r="N31" s="7">
-        <v>12357</v>
+        <v>12424</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,49 +8076,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>49</v>
+        <v>350</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>597</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,25 +8127,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210479</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>308</v>
       </c>
-      <c r="D33" s="7">
-        <v>268038</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>270</v>
-      </c>
       <c r="I33" s="7">
-        <v>202673</v>
+        <v>273016</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -8184,7 +8160,7 @@
         <v>578</v>
       </c>
       <c r="N33" s="7">
-        <v>470710</v>
+        <v>483494</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>58</v>
@@ -8198,7 +8174,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
